--- a/backend/cwa_dataset.xlsx
+++ b/backend/cwa_dataset.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="70">
   <si>
     <t>human_system</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>Pelvic pain , Irregular periods , Painful intercourse , Vaginal discharge , Erectile dysfunction , Infertility , Testicular pain , Breast tenderness , Hormonal imbalance</t>
+  </si>
+  <si>
+    <t>Circulatory</t>
+  </si>
+  <si>
+    <t>Nitrogen Mustard</t>
+  </si>
+  <si>
+    <t>Low Blood Pressure , High Blood Pressure, Cold Extremities , Irregular Pulse, Venous Distension</t>
   </si>
   <si>
     <t>Phosgene (CG)</t>
@@ -1192,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1671,136 +1680,142 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" ht="34" spans="1:24">
+    <row r="8" ht="34" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="1">
-        <v>304.9</v>
+        <v>105.5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="1">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K8" s="1">
-        <v>16</v>
+        <v>70.1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M8" s="1">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="N8" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O8" s="1">
+        <v>150</v>
+      </c>
+      <c r="P8" s="1">
         <v>96</v>
       </c>
-      <c r="P8" s="1">
-        <v>77.2</v>
-      </c>
       <c r="Q8" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" s="1">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3</v>
+      </c>
+      <c r="T8" s="1">
+        <v>500</v>
       </c>
       <c r="X8" s="1">
-        <v>2.4</v>
+        <v>10</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="34" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1">
-        <v>8</v>
+        <v>304.9</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1">
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M9" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N9" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O9" s="1">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="P9" s="1">
-        <v>89.7</v>
+        <v>77.2</v>
       </c>
       <c r="Q9" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="W9" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="X9" s="1">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10" ht="34" spans="1:24">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -1809,488 +1824,497 @@
         <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1">
-        <v>251.6</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1">
-        <v>66.7</v>
+        <v>19</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M10" s="1">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="N10" s="1">
+        <v>42</v>
+      </c>
+      <c r="O10" s="1">
+        <v>87</v>
+      </c>
+      <c r="P10" s="1">
+        <v>89.7</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>13</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="1">
         <v>28</v>
       </c>
-      <c r="O10" s="1">
-        <v>133</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92.5</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>14</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="1">
-        <v>125</v>
-      </c>
       <c r="X10" s="1">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
     </row>
-    <row r="11" ht="51" spans="1:23">
+    <row r="11" ht="34" spans="1:24">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="1">
-        <v>59.5</v>
+        <v>251.6</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K11" s="1">
-        <v>62.8</v>
+        <v>66.7</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="M11" s="1">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="N11" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O11" s="1">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="P11" s="1">
-        <v>100</v>
+        <v>92.5</v>
       </c>
       <c r="Q11" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="W11" s="1">
-        <v>62</v>
+        <v>125</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2.5</v>
       </c>
     </row>
-    <row r="12" ht="34" spans="1:25">
+    <row r="12" ht="51" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="1">
-        <v>21.3</v>
+        <v>59.5</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1">
+        <v>85</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="1">
+        <v>62.8</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="1">
-        <v>60</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="M12" s="1">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N12" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O12" s="1">
         <v>109</v>
       </c>
       <c r="P12" s="1">
-        <v>91.2</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="1">
         <v>15</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="W12" s="1">
         <v>62</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>360</v>
       </c>
     </row>
     <row r="13" ht="34" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1">
-        <v>68.6</v>
+        <v>21.3</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1">
         <v>64</v>
-      </c>
-      <c r="H13" s="1">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1">
-        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K13" s="1">
-        <v>63.5</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="1">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="N13" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O13" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P13" s="1">
-        <v>88.3</v>
+        <v>91.2</v>
       </c>
       <c r="Q13" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W13" s="1">
         <v>62</v>
       </c>
       <c r="Y13" s="1">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="14" ht="34" spans="1:24">
+    <row r="14" ht="34" spans="1:25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1">
-        <v>353.7</v>
+        <v>68.6</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H14" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I14" s="1">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K14" s="1">
-        <v>60.2</v>
+        <v>63.5</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M14" s="1">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N14" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O14" s="1">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P14" s="1">
-        <v>77.7</v>
+        <v>88.3</v>
       </c>
       <c r="Q14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="W14" s="1">
-        <v>125</v>
-      </c>
-      <c r="X14" s="1">
-        <v>2.5</v>
+        <v>62</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>381</v>
       </c>
     </row>
-    <row r="15" ht="34" spans="1:24">
+    <row r="15" ht="34" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="1">
-        <v>114.8</v>
+        <v>105.5</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="1">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I15" s="1">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K15" s="1">
-        <v>27.5</v>
+        <v>70.1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M15" s="1">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="N15" s="1">
+        <v>49</v>
+      </c>
+      <c r="O15" s="1">
+        <v>150</v>
+      </c>
+      <c r="P15" s="1">
+        <v>96</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>13</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15" s="1">
+        <v>3</v>
+      </c>
+      <c r="T15" s="1">
+        <v>500</v>
+      </c>
+      <c r="X15" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="34" spans="1:24">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="1">
-        <v>89</v>
-      </c>
-      <c r="P15" s="1">
-        <v>99</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>14</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W15" s="1">
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="X15" s="1">
-        <v>4.12</v>
-      </c>
-    </row>
-    <row r="16" ht="34" spans="1:20">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="1">
-        <v>102.7</v>
+        <v>353.7</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="1">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="1">
+        <v>60.2</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="1">
-        <v>29</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="1">
-        <v>78.6</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="M16" s="1">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N16" s="1">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="O16" s="1">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P16" s="1">
-        <v>93.3</v>
+        <v>77.7</v>
       </c>
       <c r="Q16" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S16" s="1">
-        <v>2</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1000</v>
+        <v>33</v>
+      </c>
+      <c r="W16" s="1">
+        <v>125</v>
+      </c>
+      <c r="X16" s="1">
+        <v>2.5</v>
       </c>
     </row>
-    <row r="17" ht="51" spans="1:23">
+    <row r="17" ht="34" spans="1:24">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="1">
-        <v>23.7</v>
+        <v>114.8</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="1">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K17" s="1">
-        <v>15.7</v>
+        <v>27.5</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M17" s="1">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="N17" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O17" s="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P17" s="1">
         <v>99</v>
       </c>
       <c r="Q17" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="W17" s="1">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="X17" s="1">
+        <v>4.12</v>
       </c>
     </row>
     <row r="18" ht="34" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>36</v>
@@ -2302,43 +2326,43 @@
         <v>29</v>
       </c>
       <c r="F18" s="1">
-        <v>54.8</v>
+        <v>102.7</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I18" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K18" s="1">
-        <v>60.5</v>
+        <v>78.6</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="M18" s="1">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="N18" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O18" s="1">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P18" s="1">
-        <v>97.8</v>
+        <v>93.3</v>
       </c>
       <c r="Q18" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S18" s="1">
         <v>2</v>
@@ -2347,66 +2371,255 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" ht="34" spans="1:24">
+    <row r="19" ht="51" spans="1:23">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="1">
-        <v>394</v>
+        <v>23.7</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="1">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I19" s="1">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K19" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="1">
+        <v>112</v>
+      </c>
+      <c r="N19" s="1">
+        <v>29</v>
+      </c>
+      <c r="O19" s="1">
+        <v>94</v>
+      </c>
+      <c r="P19" s="1">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>15</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W19" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="34" spans="1:20">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1">
+        <v>34</v>
+      </c>
+      <c r="I20" s="1">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="1">
+        <v>61</v>
+      </c>
+      <c r="N20" s="1">
+        <v>21</v>
+      </c>
+      <c r="O20" s="1">
+        <v>109</v>
+      </c>
+      <c r="P20" s="1">
+        <v>97.8</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>13</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" ht="34" spans="1:24">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1">
+        <v>394</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1">
+        <v>48</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="1">
         <v>79.3</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="L21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="1">
         <v>81</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N21" s="1">
         <v>22</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O21" s="1">
         <v>96</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P21" s="1">
         <v>94.3</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q21" s="1">
         <v>13</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W21" s="1">
         <v>62</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X21" s="1">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="22" ht="34" spans="1:25">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1">
+        <v>105.5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1">
+        <v>40</v>
+      </c>
+      <c r="I22" s="1">
+        <v>35</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="1">
+        <v>70.1</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="1">
+        <v>80</v>
+      </c>
+      <c r="N22" s="1">
+        <v>49</v>
+      </c>
+      <c r="O22" s="1">
+        <v>150</v>
+      </c>
+      <c r="P22" s="1">
+        <v>96</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>13</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S22" s="1">
+        <v>3</v>
+      </c>
+      <c r="T22" s="1">
+        <v>500</v>
+      </c>
+      <c r="X22" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
